--- a/APICore_SoanDeThi/DuLieu/Templates/IMPORT_HOCSINH_MAU.xlsx
+++ b/APICore_SoanDeThi/DuLieu/Templates/IMPORT_HOCSINH_MAU.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <x:workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Excel_ChiLang\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2C1680-0312-44DA-9D03-C8FA7133BB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView windowWidth="18530" windowHeight="7070"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
-  <x:calcPr calcId="144525"/>
+  <x:calcPr calcId="181029"/>
+  <x:fileRecoveryPr repairLoad="1"/>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <x:si>
     <x:t>Họ và tên lót</x:t>
   </x:si>
@@ -37,427 +53,88 @@
     <x:t>Số điện thoại liên hệ</x:t>
   </x:si>
   <x:si>
-    <x:t>Trần Thế</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duy</x:t>
-  </x:si>
-  <x:si>
     <x:t>Nam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12A3</x:t>
   </x:si>
   <x:si>
     <x:t>0353603631</x:t>
   </x:si>
   <x:si>
-    <x:t>Trần Đức</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hoàng</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10A5</x:t>
-  </x:si>
-  <x:si>
     <x:t>0966754523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Đoàn Trung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Đức</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11A8</x:t>
   </x:si>
   <x:si>
     <x:t>0988634571</x:t>
   </x:si>
   <x:si>
-    <x:t>Hoàng Anh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thư</x:t>
-  </x:si>
-  <x:si>
     <x:t>Nữ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11A4</x:t>
   </x:si>
   <x:si>
     <x:t>0966469762</x:t>
   </x:si>
   <x:si>
-    <x:t>Nguyễn Thị Diễm</x:t>
+    <x:t>0123456789</x:t>
   </x:si>
   <x:si>
-    <x:t>My</x:t>
+    <x:t>Trần Thị Hồng</x:t>
   </x:si>
   <x:si>
-    <x:t>0123456789</x:t>
+    <x:t>Thắm</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Nguyễn Văn </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tậu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trần Văn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nhật</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoàng Văn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thụ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trần Đức Quốc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nhân</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12A6</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -465,255 +142,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,68 +164,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1048,28 +439,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr/>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A2:G5511"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A6" sqref="A6"/>
+    <x:sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <x:selection activeCell="E13" sqref="E13"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <x:sheetFormatPr defaultRowHeight="13.8"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.4545454545455" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="12.7272727272727" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.72727272727273" style="1"/>
-    <x:col min="4" max="4" width="17.4545454545455" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="8.72727272727273" style="1"/>
-    <x:col min="6" max="6" width="8.72727272727273" style="2"/>
-    <x:col min="7" max="7" width="17.5454545454545" style="1" customWidth="1"/>
-    <x:col min="8" max="16384" width="8.72727272727273" style="1"/>
+    <x:col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <x:col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="8.09765625" customWidth="1"/>
+    <x:col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">
@@ -1097,74 +485,74 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="5">
-        <x:v>35989</x:v>
+        <x:v>35857</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F3" s="2" t="str">
         <x:f>LEFT(E3,2)</x:f>
         <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="5">
-        <x:v>35821</x:v>
+        <x:v>35828</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="2" t="str">
         <x:f>LEFT(E4,2)</x:f>
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G4" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="5">
-        <x:v>35904</x:v>
+        <x:v>35889</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="2" t="str">
         <x:f>LEFT(E5,2)</x:f>
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G5" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
@@ -1175,95 +563,95 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="5">
         <x:v>36089</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F6" s="2" t="str">
         <x:f>LEFT(E6,2)</x:f>
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G6" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="5">
         <x:v>36237</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F7" s="2" t="str">
         <x:f>LEFT(E7,2)</x:f>
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="6:6">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
       <x:c r="F8" s="2" t="str">
         <x:f t="shared" ref="F8:F66" si="0">LEFT(E8,2)</x:f>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="9" spans="6:6">
+    <x:row r="9" spans="1:7">
       <x:c r="F9" s="2" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="10" spans="6:6">
+    <x:row r="10" spans="1:7">
       <x:c r="F10" s="2" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="11" spans="6:6">
+    <x:row r="11" spans="1:7">
       <x:c r="F11" s="2" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="12" spans="6:6">
+    <x:row r="12" spans="1:7">
       <x:c r="F12" s="2" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="13" spans="6:6">
+    <x:row r="13" spans="1:7">
       <x:c r="F13" s="2" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="14" spans="6:6">
+    <x:row r="14" spans="1:7">
       <x:c r="F14" s="2" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="15" spans="6:6">
+    <x:row r="15" spans="1:7">
       <x:c r="F15" s="2" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
     </x:row>
-    <x:row r="16" spans="6:6">
+    <x:row r="16" spans="1:7">
       <x:c r="F16" s="2" t="str">
         <x:f t="shared" si="0"/>
         <x:v/>
@@ -34240,12 +33628,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:dataValidations count="1">
-    <x:dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C7;C8:C1048576">
-      <x:formula1>"Nam,Nữ"</x:formula1>
-    </x:dataValidation>
-  </x:dataValidations>
-  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <x:headerFooter/>
+  <x:phoneticPr fontId="1" type="noConversion"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>
 </file>